--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value845.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value845.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6571879466739969</v>
+        <v>0.7848485112190247</v>
       </c>
       <c r="B1">
-        <v>1.562911045537213</v>
+        <v>1.147804141044617</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.570649147033691</v>
       </c>
       <c r="D1">
-        <v>2.596158876746404</v>
+        <v>3.846026182174683</v>
       </c>
       <c r="E1">
-        <v>1.569922287338742</v>
+        <v>1.867638230323792</v>
       </c>
     </row>
   </sheetData>
